--- a/data/trans_bre/POLIPATOLOGIA_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.2856751081721</v>
+        <v>12.52991923614884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.65252365196916</v>
+        <v>9.633917760166918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.46081443380472</v>
+        <v>14.07054498862606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.42903477709585</v>
+        <v>14.29737959881565</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3057286238893102</v>
+        <v>0.3029651235536411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2096527969305106</v>
+        <v>0.1860607031815897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3124897916343062</v>
+        <v>0.3033816275204104</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2580863094561855</v>
+        <v>0.2540470795442178</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.82475017719274</v>
+        <v>20.68729280847518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.89922134155918</v>
+        <v>18.48862830443522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.14967570526451</v>
+        <v>23.69160969329648</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.07746799540115</v>
+        <v>24.28539567482391</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5742326903877797</v>
+        <v>0.5712289908998374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.413325185171225</v>
+        <v>0.4008947496406764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5874026593634056</v>
+        <v>0.5710070597663373</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4888310834537944</v>
+        <v>0.4974505206341372</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.4914480156734324</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3851713726256611</v>
+        <v>0.3851713726256613</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.28296434082989</v>
+        <v>6.447961516326109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.174411869948807</v>
+        <v>6.359500175976766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.497353762407846</v>
+        <v>6.192334299235893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.867665083389595</v>
+        <v>8.075892426051171</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5200009908235886</v>
+        <v>0.5325057850020735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3824752213091964</v>
+        <v>0.3822718715298383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3323255889336308</v>
+        <v>0.3223254899702128</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2622785732643261</v>
+        <v>0.2701465393127858</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.4756356669128</v>
+        <v>11.36453320464334</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.92195737088586</v>
+        <v>11.94002925716967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.49808388505259</v>
+        <v>11.5770670637487</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.68981432845422</v>
+        <v>13.80548890083984</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.171076439444094</v>
+        <v>1.148405346627202</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.834035713356384</v>
+        <v>0.8302708477418614</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6904758283778005</v>
+        <v>0.6982062974823485</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5078683246771389</v>
+        <v>0.5132442361757371</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.890596294314723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.776325728629914</v>
+        <v>9.776325728629926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6535778856181236</v>
@@ -849,7 +849,7 @@
         <v>0.104911140807873</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3539048297588821</v>
+        <v>0.3539048297588826</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.669734286177616</v>
+        <v>2.525183382381343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.891686602281778</v>
+        <v>4.138713232532592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.957750597657014</v>
+        <v>-3.039295304643631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.213192970196321</v>
+        <v>5.044457530843857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.189946086041508</v>
+        <v>0.1795902214755591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2729839577880435</v>
+        <v>0.2807788874552598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1506145057783687</v>
+        <v>-0.1517767002223504</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.172898443018563</v>
+        <v>0.1594021358582232</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.4428690100912</v>
+        <v>11.84513503747481</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.83976657077012</v>
+        <v>13.863722703611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.634958677865114</v>
+        <v>6.619845708717957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.29942300951269</v>
+        <v>14.31295412222355</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.322651633372424</v>
+        <v>1.308197767316278</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.569001426520143</v>
+        <v>1.525390993009031</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4375127538083433</v>
+        <v>0.4239235867818025</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5719347041320949</v>
+        <v>0.5646438801347983</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.511192745826191</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4298542017171453</v>
+        <v>0.4298542017171452</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.61448257315639</v>
+        <v>11.54035036629175</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>12.12211478478203</v>
+        <v>12.14562873187377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.700265709620666</v>
+        <v>9.926330185142124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11.44979980043297</v>
+        <v>11.77610206079652</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.558456971142125</v>
+        <v>0.5511661661304204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4744318389927261</v>
+        <v>0.4812978437743555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3845611389950706</v>
+        <v>0.4010513507372795</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3442105962860503</v>
+        <v>0.3475884799285989</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.69414905361409</v>
+        <v>15.90142994263494</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.41415593396597</v>
+        <v>16.47747611997379</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.31631341392512</v>
+        <v>14.50928719219021</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.13252228788631</v>
+        <v>16.03656529579956</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8491599732600669</v>
+        <v>0.856267715632872</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7111102182100638</v>
+        <v>0.7175074364248842</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6369780695995413</v>
+        <v>0.6413349397448727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5263041843841484</v>
+        <v>0.5188822287664344</v>
       </c>
     </row>
     <row r="16">
